--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -374,45 +374,99 @@
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
         <v>10</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
